--- a/outcome/simulate data/B_Dengue fever.xlsx
+++ b/outcome/simulate data/B_Dengue fever.xlsx
@@ -412,25 +412,25 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>288.350704147704</v>
+        <v>-37.3877309985134</v>
       </c>
       <c r="C2" t="n">
-        <v>-24529.9964630307</v>
+        <v>-17005.25496189</v>
       </c>
       <c r="D2" t="n">
-        <v>-37554.0627021165</v>
+        <v>-26149.2431765408</v>
       </c>
       <c r="E2" t="n">
-        <v>24676.0970904214</v>
+        <v>17541.5548655571</v>
       </c>
       <c r="F2" t="n">
-        <v>37700.1633295072</v>
+        <v>26685.5430802079</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>44713</v>
       </c>
       <c r="H2" t="n">
-        <v>55.9636912035168</v>
+        <v>58.2478560612565</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -442,25 +442,25 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>437.428681227204</v>
+        <v>-881.38924198567</v>
       </c>
       <c r="C3" t="n">
-        <v>-24756.7566119261</v>
+        <v>-17290.7832420186</v>
       </c>
       <c r="D3" t="n">
-        <v>-37900.8624227935</v>
+        <v>-26585.9209979142</v>
       </c>
       <c r="E3" t="n">
-        <v>24902.8572393169</v>
+        <v>17827.0831456857</v>
       </c>
       <c r="F3" t="n">
-        <v>38046.9630501842</v>
+        <v>27122.2209015813</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>44743</v>
       </c>
       <c r="H3" t="n">
-        <v>112.336198895903</v>
+        <v>111.345058331459</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -472,25 +472,25 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>629.205258898717</v>
+        <v>55.1127513761566</v>
       </c>
       <c r="C4" t="n">
-        <v>-24981.464513567</v>
+        <v>-17571.7422142888</v>
       </c>
       <c r="D4" t="n">
-        <v>-38244.5235021435</v>
+        <v>-27015.6106659605</v>
       </c>
       <c r="E4" t="n">
-        <v>25127.5651409578</v>
+        <v>18108.042117956</v>
       </c>
       <c r="F4" t="n">
-        <v>38390.6241295343</v>
+        <v>27551.9105696277</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>44774</v>
       </c>
       <c r="H4" t="n">
-        <v>167.069435558701</v>
+        <v>154.625165722708</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -502,25 +502,25 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>1350.9267719888</v>
+        <v>2890.27132202228</v>
       </c>
       <c r="C5" t="n">
-        <v>-25204.174899832</v>
+        <v>-17848.3444687653</v>
       </c>
       <c r="D5" t="n">
-        <v>-38585.1296453515</v>
+        <v>-27438.6373091265</v>
       </c>
       <c r="E5" t="n">
-        <v>26639.6222438641</v>
+        <v>20271.9456373159</v>
       </c>
       <c r="F5" t="n">
-        <v>38731.2302727423</v>
+        <v>28603.3990495582</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>44805</v>
       </c>
       <c r="H5" t="n">
-        <v>234.187123607731</v>
+        <v>184.173275977341</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -532,25 +532,25 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>1403.36177271583</v>
+        <v>4209.62164017409</v>
       </c>
       <c r="C6" t="n">
-        <v>-25424.9401122432</v>
+        <v>-18120.7866048111</v>
       </c>
       <c r="D6" t="n">
-        <v>-38922.7609018678</v>
+        <v>-27855.3016001915</v>
       </c>
       <c r="E6" t="n">
-        <v>27443.8723552415</v>
+        <v>20616.6872356606</v>
       </c>
       <c r="F6" t="n">
-        <v>39567.7374943</v>
+        <v>29073.4319377111</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>44835</v>
       </c>
       <c r="H6" t="n">
-        <v>289.627605408012</v>
+        <v>198.927410751316</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -562,25 +562,25 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>330.608208276513</v>
+        <v>1049.35365894397</v>
       </c>
       <c r="C7" t="n">
-        <v>-25643.8102456172</v>
+        <v>-18389.2508659924</v>
       </c>
       <c r="D7" t="n">
-        <v>-39257.4938851031</v>
+        <v>-28265.8822566383</v>
       </c>
       <c r="E7" t="n">
-        <v>25789.910873008</v>
+        <v>18925.5507696596</v>
       </c>
       <c r="F7" t="n">
-        <v>39403.5945124938</v>
+        <v>28802.1821603054</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>44866</v>
       </c>
       <c r="H7" t="n">
-        <v>322.503945736858</v>
+        <v>196.741124627766</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -592,25 +592,25 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>168.098470133152</v>
+        <v>-760.894121817989</v>
       </c>
       <c r="C8" t="n">
-        <v>-25860.8332808031</v>
+        <v>-18653.906566149</v>
       </c>
       <c r="D8" t="n">
-        <v>-39589.4019754336</v>
+        <v>-28670.638221639</v>
       </c>
       <c r="E8" t="n">
-        <v>26006.9339081939</v>
+        <v>19190.2064698162</v>
       </c>
       <c r="F8" t="n">
-        <v>39735.5026028243</v>
+        <v>29206.9381253061</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>44896</v>
       </c>
       <c r="H8" t="n">
-        <v>336.08857232568</v>
+        <v>184.999074772586</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -622,25 +622,25 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>135.589819354454</v>
+        <v>-1175.20481812854</v>
       </c>
       <c r="C9" t="n">
-        <v>-26076.055207505</v>
+        <v>-18914.911338337</v>
       </c>
       <c r="D9" t="n">
-        <v>-39918.555508042</v>
+        <v>-29069.8105741491</v>
       </c>
       <c r="E9" t="n">
-        <v>26222.1558348957</v>
+        <v>19451.2112420041</v>
       </c>
       <c r="F9" t="n">
-        <v>40064.6561354328</v>
+        <v>29606.1104778162</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>44927</v>
       </c>
       <c r="H9" t="n">
-        <v>327.096298473954</v>
+        <v>169.924050686337</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -652,25 +652,25 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>135.448344992619</v>
+        <v>172.865653002397</v>
       </c>
       <c r="C10" t="n">
-        <v>-26289.5201380785</v>
+        <v>-19172.4122328141</v>
       </c>
       <c r="D10" t="n">
-        <v>-40245.0219469549</v>
+        <v>-29463.6242081308</v>
       </c>
       <c r="E10" t="n">
-        <v>26435.6207654693</v>
+        <v>19708.7121364813</v>
       </c>
       <c r="F10" t="n">
-        <v>40391.1225743456</v>
+        <v>29999.9241117979</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>44958</v>
       </c>
       <c r="H10" t="n">
-        <v>296.189113478032</v>
+        <v>157.070060653873</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -682,25 +682,25 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>140.762975924301</v>
+        <v>1124.76006298819</v>
       </c>
       <c r="C11" t="n">
-        <v>-26501.2704131005</v>
+        <v>-19426.5466857861</v>
       </c>
       <c r="D11" t="n">
-        <v>-40568.8660464962</v>
+        <v>-29852.2893141222</v>
       </c>
       <c r="E11" t="n">
-        <v>26647.3710404913</v>
+        <v>19962.8465894532</v>
       </c>
       <c r="F11" t="n">
-        <v>40714.9666738869</v>
+        <v>30388.5892177893</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>44986</v>
       </c>
       <c r="H11" t="n">
-        <v>258.351048757618</v>
+        <v>148.172936244059</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -712,25 +712,25 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>156.694479186723</v>
+        <v>3256.09821659995</v>
       </c>
       <c r="C12" t="n">
-        <v>-26711.3466994256</v>
+        <v>-19677.4433770344</v>
       </c>
       <c r="D12" t="n">
-        <v>-40890.1500012531</v>
+        <v>-30236.0026908663</v>
       </c>
       <c r="E12" t="n">
-        <v>26857.4473268164</v>
+        <v>20213.7432807015</v>
       </c>
       <c r="F12" t="n">
-        <v>41036.2506286439</v>
+        <v>30772.3025945334</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>45017</v>
       </c>
       <c r="H12" t="n">
-        <v>227.440401906088</v>
+        <v>143.205062580796</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -742,25 +742,25 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>198.043594635373</v>
+        <v>6146.9420823531</v>
       </c>
       <c r="C13" t="n">
-        <v>-26919.7880813745</v>
+        <v>-19925.2229916173</v>
       </c>
       <c r="D13" t="n">
-        <v>-41208.9335855359</v>
+        <v>-30614.9489102324</v>
       </c>
       <c r="E13" t="n">
-        <v>27065.8887087652</v>
+        <v>20461.5228952844</v>
       </c>
       <c r="F13" t="n">
-        <v>41355.0342129267</v>
+        <v>31151.2488138995</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>45047</v>
       </c>
       <c r="H13" t="n">
-        <v>208.158551361281</v>
+        <v>141.773037991192</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -772,25 +772,25 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>303.052580348271</v>
+        <v>3082.91277975043</v>
       </c>
       <c r="C14" t="n">
-        <v>-27126.6321456318</v>
+        <v>-20169.9988984417</v>
       </c>
       <c r="D14" t="n">
-        <v>-41525.2742832182</v>
+        <v>-30989.3013550011</v>
       </c>
       <c r="E14" t="n">
-        <v>27272.7327730225</v>
+        <v>20706.2988021088</v>
       </c>
       <c r="F14" t="n">
-        <v>41671.3749106089</v>
+        <v>31525.6012586683</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>45078</v>
       </c>
       <c r="H14" t="n">
-        <v>203.642125734784</v>
+        <v>149.207865319007</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -802,25 +802,25 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>450.631452249996</v>
+        <v>355.292224435785</v>
       </c>
       <c r="C15" t="n">
-        <v>-27331.9150603769</v>
+        <v>-20411.8777565308</v>
       </c>
       <c r="D15" t="n">
-        <v>-41839.227408757</v>
+        <v>-31359.2231460724</v>
       </c>
       <c r="E15" t="n">
-        <v>27478.0156877677</v>
+        <v>20948.177660198</v>
       </c>
       <c r="F15" t="n">
-        <v>41985.3280361477</v>
+        <v>31895.5230497396</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>45108</v>
       </c>
       <c r="H15" t="n">
-        <v>212.304041466594</v>
+        <v>164.041874943295</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -832,25 +832,25 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>631.400179046261</v>
+        <v>339.08982773967</v>
       </c>
       <c r="C16" t="n">
-        <v>-27535.6716491187</v>
+        <v>-20650.9600581892</v>
       </c>
       <c r="D16" t="n">
-        <v>-42150.8462201131</v>
+        <v>-31724.867973163</v>
       </c>
       <c r="E16" t="n">
-        <v>27681.7722765095</v>
+        <v>21187.2599618563</v>
       </c>
       <c r="F16" t="n">
-        <v>42296.9468475039</v>
+        <v>32261.1678768301</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>45139</v>
       </c>
       <c r="H16" t="n">
-        <v>230.625838502954</v>
+        <v>185.202855366443</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -862,25 +862,25 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>1339.18589814075</v>
+        <v>815.606998483281</v>
       </c>
       <c r="C17" t="n">
-        <v>-27737.9354596612</v>
+        <v>-20887.3406169088</v>
       </c>
       <c r="D17" t="n">
-        <v>-42460.1820242255</v>
+        <v>-32086.380840996</v>
       </c>
       <c r="E17" t="n">
-        <v>28915.4689353572</v>
+        <v>22912.0375649041</v>
       </c>
       <c r="F17" t="n">
-        <v>42606.2826516163</v>
+        <v>32641.0712221554</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>45170</v>
       </c>
       <c r="H17" t="n">
-        <v>256.725143846666</v>
+        <v>208.876715830537</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -892,25 +892,25 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>1391.3103385589</v>
+        <v>299.440541063803</v>
       </c>
       <c r="C18" t="n">
-        <v>-27938.7388285875</v>
+        <v>-21121.1090067386</v>
       </c>
       <c r="D18" t="n">
-        <v>-42767.28427563</v>
+        <v>-32443.8987412575</v>
       </c>
       <c r="E18" t="n">
-        <v>29701.7891383541</v>
+        <v>23223.1818041919</v>
       </c>
       <c r="F18" t="n">
-        <v>43020.9232216403</v>
+        <v>33059.7213836998</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>45200</v>
       </c>
       <c r="H18" t="n">
-        <v>285.828647482537</v>
+        <v>230.571170845187</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -922,25 +922,25 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>323.22092515852</v>
+        <v>735.057566058508</v>
       </c>
       <c r="C19" t="n">
-        <v>-28138.1129416117</v>
+        <v>-21352.3499588894</v>
       </c>
       <c r="D19" t="n">
-        <v>-43072.2006687609</v>
+        <v>-32797.5512591519</v>
       </c>
       <c r="E19" t="n">
-        <v>28284.2135690024</v>
+        <v>21888.6498625565</v>
       </c>
       <c r="F19" t="n">
-        <v>43218.3012961516</v>
+        <v>33333.8511628191</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>45231</v>
       </c>
       <c r="H19" t="n">
-        <v>309.756992308204</v>
+        <v>244.203386435033</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -952,25 +952,25 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>163.337372702276</v>
+        <v>2674.02367023674</v>
       </c>
       <c r="C20" t="n">
-        <v>-28336.0878901196</v>
+        <v>-21581.1437205551</v>
       </c>
       <c r="D20" t="n">
-        <v>-43374.9772244212</v>
+        <v>-33147.4611221715</v>
       </c>
       <c r="E20" t="n">
-        <v>28482.1885175103</v>
+        <v>22117.4436242223</v>
       </c>
       <c r="F20" t="n">
-        <v>43521.0778518119</v>
+        <v>33683.7610258387</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>45261</v>
       </c>
       <c r="H20" t="n">
-        <v>320.475271211464</v>
+        <v>247.000609496356</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -982,25 +982,25 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>133.619674929324</v>
+        <v>4057.91237010432</v>
       </c>
       <c r="C21" t="n">
-        <v>-28532.6927241865</v>
+        <v>-21807.5663802585</v>
       </c>
       <c r="D21" t="n">
-        <v>-43675.6583708673</v>
+        <v>-33493.74469767</v>
       </c>
       <c r="E21" t="n">
-        <v>28678.7933515773</v>
+        <v>22343.8662839257</v>
       </c>
       <c r="F21" t="n">
-        <v>43821.758998258</v>
+        <v>34030.0446013371</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>45292</v>
       </c>
       <c r="H21" t="n">
-        <v>313.187410583338</v>
+        <v>239.335817917156</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -1012,25 +1012,25 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>135.177620328925</v>
+        <v>2328.02993593325</v>
       </c>
       <c r="C22" t="n">
-        <v>-28727.9555023382</v>
+        <v>-22031.6901634612</v>
       </c>
       <c r="D22" t="n">
-        <v>-43974.2870199111</v>
+        <v>-33836.5124449588</v>
       </c>
       <c r="E22" t="n">
-        <v>28874.056129729</v>
+        <v>22567.9900671284</v>
       </c>
       <c r="F22" t="n">
-        <v>44120.3876473018</v>
+        <v>34372.8123486259</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>45323</v>
       </c>
       <c r="H22" t="n">
-        <v>290.982463025833</v>
+        <v>225.265025471267</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -1042,25 +1042,25 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>141.01784406891</v>
+        <v>339.266772399796</v>
       </c>
       <c r="C23" t="n">
-        <v>-28921.903338295</v>
+        <v>-22253.5837016937</v>
       </c>
       <c r="D23" t="n">
-        <v>-44270.9046384096</v>
+        <v>-34175.8693269061</v>
       </c>
       <c r="E23" t="n">
-        <v>29068.0039656858</v>
+        <v>22789.8836053609</v>
       </c>
       <c r="F23" t="n">
-        <v>44417.0052658003</v>
+        <v>34712.1692305732</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>45352</v>
       </c>
       <c r="H23" t="n">
-        <v>264.641569250359</v>
+        <v>209.700203564414</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -1072,25 +1072,25 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>158.396227521321</v>
+        <v>-1065.83925796659</v>
       </c>
       <c r="C24" t="n">
-        <v>-29114.562444921</v>
+        <v>-22473.3122780482</v>
       </c>
       <c r="D24" t="n">
-        <v>-44565.5513154787</v>
+        <v>-34511.9151853854</v>
       </c>
       <c r="E24" t="n">
-        <v>29260.6630723117</v>
+        <v>23009.6121817153</v>
       </c>
       <c r="F24" t="n">
-        <v>44711.6519428695</v>
+        <v>35048.2150890525</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>45383</v>
       </c>
       <c r="H24" t="n">
-        <v>244.040571180611</v>
+        <v>196.70252390959</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -1102,25 +1102,25 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>204.179995119755</v>
+        <v>-779.951660521318</v>
       </c>
       <c r="C25" t="n">
-        <v>-29305.9581755783</v>
+        <v>-22690.9380515226</v>
       </c>
       <c r="D25" t="n">
-        <v>-44858.2658257401</v>
+        <v>-34844.7450843807</v>
       </c>
       <c r="E25" t="n">
-        <v>29452.0588029691</v>
+        <v>23227.2379551897</v>
       </c>
       <c r="F25" t="n">
-        <v>45004.3664531309</v>
+        <v>35381.0449880478</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>45413</v>
       </c>
       <c r="H25" t="n">
-        <v>232.837087706981</v>
+        <v>188.254762479731</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -1132,25 +1132,25 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>317.334439599261</v>
+        <v>269.760416018407</v>
       </c>
       <c r="C26" t="n">
-        <v>-29496.1150630732</v>
+        <v>-22906.5202624017</v>
       </c>
       <c r="D26" t="n">
-        <v>-45149.0856888829</v>
+        <v>-35174.4496240893</v>
       </c>
       <c r="E26" t="n">
-        <v>29642.2156904639</v>
+        <v>23442.8201660688</v>
       </c>
       <c r="F26" t="n">
-        <v>45295.1863162737</v>
+        <v>35710.7495277564</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>45444</v>
       </c>
       <c r="H26" t="n">
-        <v>231.15321410898</v>
+        <v>185.82904128855</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -1162,25 +1162,25 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>461.113480191184</v>
+        <v>2167.23111457258</v>
       </c>
       <c r="C27" t="n">
-        <v>-29685.056856361</v>
+        <v>-23120.1154205979</v>
       </c>
       <c r="D27" t="n">
-        <v>-45438.0472258002</v>
+        <v>-35501.1152289639</v>
       </c>
       <c r="E27" t="n">
-        <v>29831.1574837517</v>
+        <v>23656.415324265</v>
       </c>
       <c r="F27" t="n">
-        <v>45584.147853191</v>
+        <v>36037.415132631</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>45474</v>
       </c>
       <c r="H27" t="n">
-        <v>237.87751838738</v>
+        <v>189.552180570505</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
@@ -1192,25 +1192,25 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>630.967577313807</v>
+        <v>4886.70377014914</v>
       </c>
       <c r="C28" t="n">
-        <v>-29872.8065551676</v>
+        <v>-23331.7774786479</v>
       </c>
       <c r="D28" t="n">
-        <v>-45725.1856115373</v>
+        <v>-35824.8244122891</v>
       </c>
       <c r="E28" t="n">
-        <v>30018.9071825584</v>
+        <v>23868.077382315</v>
       </c>
       <c r="F28" t="n">
-        <v>45871.2862389281</v>
+        <v>36361.1243159562</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>45505</v>
       </c>
       <c r="H28" t="n">
-        <v>250.744401008786</v>
+        <v>199.365174758299</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -1222,25 +1222,25 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>1326.73668962337</v>
+        <v>4916.90296198323</v>
       </c>
       <c r="C29" t="n">
-        <v>-30059.3864426691</v>
+        <v>-23541.5579908671</v>
       </c>
       <c r="D29" t="n">
-        <v>-46010.5349252708</v>
+        <v>-36145.6560195864</v>
       </c>
       <c r="E29" t="n">
-        <v>31000.6172441735</v>
+        <v>25217.8574886675</v>
       </c>
       <c r="F29" t="n">
-        <v>46156.6355526616</v>
+        <v>36681.9559232535</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>45536</v>
       </c>
       <c r="H29" t="n">
-        <v>266.805295304532</v>
+        <v>214.292822415656</v>
       </c>
       <c r="I29"/>
       <c r="J29"/>
@@ -1252,25 +1252,25 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>1379.83392452132</v>
+        <v>1580.15884532477</v>
       </c>
       <c r="C30" t="n">
-        <v>-30244.8181163604</v>
+        <v>-23749.5062599914</v>
       </c>
       <c r="D30" t="n">
-        <v>-46294.1281975194</v>
+        <v>-36463.6854528835</v>
       </c>
       <c r="E30" t="n">
-        <v>31773.1304514123</v>
+        <v>25506.5708038159</v>
       </c>
       <c r="F30" t="n">
-        <v>46440.2288249102</v>
+        <v>36999.9853565506</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="H30" t="n">
-        <v>282.563294055333</v>
+        <v>232.421199933724</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -1282,25 +1282,25 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>316.376973376788</v>
+        <v>707.427743408198</v>
       </c>
       <c r="C31" t="n">
-        <v>-30429.1225172366</v>
+        <v>-23955.6694724878</v>
       </c>
       <c r="D31" t="n">
-        <v>-46575.9974547709</v>
+        <v>-36778.984877654</v>
       </c>
       <c r="E31" t="n">
-        <v>30575.2231446274</v>
+        <v>24491.9693761549</v>
       </c>
       <c r="F31" t="n">
-        <v>46722.0980821617</v>
+        <v>37315.2847813211</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>45597</v>
       </c>
       <c r="H31" t="n">
-        <v>293.806912456636</v>
+        <v>250.02397429507</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -1312,25 +1312,25 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>159.169469021656</v>
+        <v>902.832191997644</v>
       </c>
       <c r="C32" t="n">
-        <v>-30612.319957395</v>
+        <v>-24160.0928235861</v>
       </c>
       <c r="D32" t="n">
-        <v>-46856.1737616976</v>
+        <v>-37091.6234140373</v>
       </c>
       <c r="E32" t="n">
-        <v>30758.4205847858</v>
+        <v>24696.3927272532</v>
       </c>
       <c r="F32" t="n">
-        <v>47002.2743890883</v>
+        <v>37627.9233177044</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="H32" t="n">
-        <v>296.703973896503</v>
+        <v>262.850517629072</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
@@ -1342,25 +1342,25 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>132.023993056415</v>
+        <v>831.341648466222</v>
       </c>
       <c r="C33" t="n">
-        <v>-30794.4301461638</v>
+        <v>-24362.8196329708</v>
       </c>
       <c r="D33" t="n">
-        <v>-47134.6872611157</v>
+        <v>-37401.6673137736</v>
       </c>
       <c r="E33" t="n">
-        <v>30940.5307735546</v>
+        <v>24899.1195366379</v>
       </c>
       <c r="F33" t="n">
-        <v>47280.7878885065</v>
+        <v>37937.9672174408</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>45658</v>
       </c>
       <c r="H33" t="n">
-        <v>290.152689431184</v>
+        <v>267.391891234012</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
@@ -1372,25 +1372,25 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>134.993327674362</v>
+        <v>-343.45779019775</v>
       </c>
       <c r="C34" t="n">
-        <v>-30975.4722148511</v>
+        <v>-24563.8914519711</v>
       </c>
       <c r="D34" t="n">
-        <v>-47411.5672118363</v>
+        <v>-37709.1801241373</v>
       </c>
       <c r="E34" t="n">
-        <v>31121.5728422419</v>
+        <v>25100.1913556382</v>
       </c>
       <c r="F34" t="n">
-        <v>47557.667839227</v>
+        <v>38245.4800278045</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>45689</v>
       </c>
       <c r="H34" t="n">
-        <v>277.177280472018</v>
+        <v>262.595816746175</v>
       </c>
       <c r="I34"/>
       <c r="J34"/>
@@ -1402,25 +1402,25 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>141.470367335554</v>
+        <v>-397.216924307996</v>
       </c>
       <c r="C35" t="n">
-        <v>-31155.4647402026</v>
+        <v>-24763.3481630013</v>
       </c>
       <c r="D35" t="n">
-        <v>-47686.8420245398</v>
+        <v>-38014.2228400174</v>
       </c>
       <c r="E35" t="n">
-        <v>31301.5653675933</v>
+        <v>25299.6480666684</v>
       </c>
       <c r="F35" t="n">
-        <v>47832.9426519306</v>
+        <v>38550.5227436845</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>45717</v>
       </c>
       <c r="H35" t="n">
-        <v>263.067330614983</v>
+        <v>250.209521623629</v>
       </c>
       <c r="I35"/>
       <c r="J35"/>
@@ -1432,25 +1432,25 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>160.740594996759</v>
+        <v>1156.15477352141</v>
       </c>
       <c r="C36" t="n">
-        <v>-31334.425766649</v>
+        <v>-24961.2280719247</v>
       </c>
       <c r="D36" t="n">
-        <v>-47960.539295802</v>
+        <v>-38316.8540451761</v>
       </c>
       <c r="E36" t="n">
-        <v>31480.5263940397</v>
+        <v>25497.5279755918</v>
       </c>
       <c r="F36" t="n">
-        <v>48106.6399231927</v>
+        <v>38853.1539488433</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>45748</v>
       </c>
       <c r="H36" t="n">
-        <v>252.142896562403</v>
+        <v>234.281074966007</v>
       </c>
       <c r="I36"/>
       <c r="J36"/>
@@ -1462,25 +1462,25 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>211.739305660126</v>
+        <v>3513.43608042906</v>
       </c>
       <c r="C37" t="n">
-        <v>-31512.3728274195</v>
+        <v>-25157.5679939474</v>
       </c>
       <c r="D37" t="n">
-        <v>-48232.6858403827</v>
+        <v>-38617.1300436128</v>
       </c>
       <c r="E37" t="n">
-        <v>31658.4734548103</v>
+        <v>25693.8678976145</v>
       </c>
       <c r="F37" t="n">
-        <v>48378.7864677734</v>
+        <v>39153.4299472799</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>45778</v>
       </c>
       <c r="H37" t="n">
-        <v>246.543992958292</v>
+        <v>219.227938669919</v>
       </c>
       <c r="I37"/>
       <c r="J37"/>
